--- a/data/source/archive/cs-en-us-city2023-04-03.xlsx
+++ b/data/source/archive/cs-en-us-city2023-04-03.xlsx
@@ -69,7 +69,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">12</t>
+      <t xml:space="preserve">13</t>
     </r>
   </si>
   <si>
@@ -95,7 +95,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/20/2023</t>
+      <t xml:space="preserve">3/27/2023</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +113,7 @@
         <family val="2"/>
         <rFont val="Andale WT"/>
       </rPr>
-      <t xml:space="preserve">3/26/2023</t>
+      <t xml:space="preserve">4/2/2023</t>
     </r>
   </si>
   <si>
@@ -823,40 +823,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="16">
-        <v>60</v>
+        <v>16.666666666666</v>
       </c>
       <c r="F14" s="15">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G14" s="15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" s="16">
-        <v>-12.5</v>
+        <v>6.666666666666</v>
       </c>
       <c r="I14" s="15">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J14" s="15">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K14" s="16">
-        <v>-13.402061855670</v>
+        <v>-10.679611650485</v>
       </c>
       <c r="L14" s="16">
-        <v>-10.638297872340</v>
+        <v>-11.538461538461</v>
       </c>
       <c r="M14" s="16">
-        <v>-22.935779816513</v>
+        <v>-23.333333333333</v>
       </c>
       <c r="N14" s="16">
-        <v>-81.456953642384</v>
+        <v>-81.300813008130</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="C15" s="15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="15">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E15" s="16">
-        <v>33.333333333333</v>
+        <v>-6.25</v>
       </c>
       <c r="F15" s="15">
+        <v>118</v>
+      </c>
+      <c r="G15" s="15">
         <v>113</v>
       </c>
-      <c r="G15" s="15">
-        <v>120</v>
-      </c>
       <c r="H15" s="16">
-        <v>-5.833333333333</v>
+        <v>4.424778761061</v>
       </c>
       <c r="I15" s="15">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="J15" s="15">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="K15" s="16">
-        <v>-8.994708994709</v>
+        <v>-8.536585365853</v>
       </c>
       <c r="L15" s="16">
-        <v>11.326860841423</v>
+        <v>6.534090909090</v>
       </c>
       <c r="M15" s="16">
-        <v>28.358208955223</v>
+        <v>25</v>
       </c>
       <c r="N15" s="16">
-        <v>-49.560117302052</v>
+        <v>-50.396825396825</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -905,40 +905,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="15">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D16" s="15">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E16" s="16">
-        <v>-4</v>
+        <v>-0.682593856655</v>
       </c>
       <c r="F16" s="15">
-        <v>1114</v>
+        <v>1146</v>
       </c>
       <c r="G16" s="15">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="H16" s="16">
-        <v>-3.466204506065</v>
+        <v>-1.206896551724</v>
       </c>
       <c r="I16" s="15">
-        <v>3544</v>
+        <v>3843</v>
       </c>
       <c r="J16" s="15">
-        <v>3619</v>
+        <v>3912</v>
       </c>
       <c r="K16" s="16">
-        <v>-2.072395689416</v>
+        <v>-1.763803680981</v>
       </c>
       <c r="L16" s="16">
-        <v>43.948009748172</v>
+        <v>44.256756756756</v>
       </c>
       <c r="M16" s="16">
-        <v>-13.813229571984</v>
+        <v>-13.348365276212</v>
       </c>
       <c r="N16" s="16">
-        <v>-82.037506335529</v>
+        <v>-82.027779076836</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,40 +946,40 @@
         <v>22</v>
       </c>
       <c r="C17" s="15">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="D17" s="15">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="E17" s="16">
-        <v>-6.613226452905</v>
+        <v>4.357298474945</v>
       </c>
       <c r="F17" s="15">
-        <v>1875</v>
+        <v>1929</v>
       </c>
       <c r="G17" s="15">
-        <v>1851</v>
+        <v>1871</v>
       </c>
       <c r="H17" s="16">
-        <v>1.296596434359</v>
+        <v>3.099946552645</v>
       </c>
       <c r="I17" s="15">
-        <v>5697</v>
+        <v>6220</v>
       </c>
       <c r="J17" s="15">
-        <v>5249</v>
+        <v>5708</v>
       </c>
       <c r="K17" s="16">
-        <v>8.534959039817</v>
+        <v>8.969866853538</v>
       </c>
       <c r="L17" s="16">
-        <v>31.875</v>
+        <v>32.115548003398</v>
       </c>
       <c r="M17" s="16">
-        <v>60.524091293322</v>
+        <v>62.063574778530</v>
       </c>
       <c r="N17" s="16">
-        <v>-29.960658962380</v>
+        <v>-30.495027377360</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -987,40 +987,40 @@
         <v>23</v>
       </c>
       <c r="C18" s="15">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="D18" s="15">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E18" s="16">
-        <v>-20</v>
+        <v>-10.130718954248</v>
       </c>
       <c r="F18" s="15">
-        <v>1053</v>
+        <v>1073</v>
       </c>
       <c r="G18" s="15">
-        <v>1210</v>
+        <v>1236</v>
       </c>
       <c r="H18" s="16">
-        <v>-12.975206611570</v>
+        <v>-13.187702265372</v>
       </c>
       <c r="I18" s="15">
-        <v>3344</v>
+        <v>3627</v>
       </c>
       <c r="J18" s="15">
-        <v>3568</v>
+        <v>3874</v>
       </c>
       <c r="K18" s="16">
-        <v>-6.278026905829</v>
+        <v>-6.375838926174</v>
       </c>
       <c r="L18" s="16">
-        <v>21.777130371449</v>
+        <v>23.032564450474</v>
       </c>
       <c r="M18" s="16">
-        <v>-19.731156985117</v>
+        <v>-18.070928393946</v>
       </c>
       <c r="N18" s="16">
-        <v>-85.352606219886</v>
+        <v>-85.354922070580</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1028,40 +1028,40 @@
         <v>24</v>
       </c>
       <c r="C19" s="15">
-        <v>956</v>
+        <v>922</v>
       </c>
       <c r="D19" s="15">
-        <v>917</v>
+        <v>943</v>
       </c>
       <c r="E19" s="16">
-        <v>4.252998909487</v>
+        <v>-2.226935312831</v>
       </c>
       <c r="F19" s="15">
-        <v>3687</v>
+        <v>3671</v>
       </c>
       <c r="G19" s="15">
-        <v>3668</v>
+        <v>3685</v>
       </c>
       <c r="H19" s="16">
-        <v>0.517993456924</v>
+        <v>-0.379918588873</v>
       </c>
       <c r="I19" s="15">
-        <v>10998</v>
+        <v>11927</v>
       </c>
       <c r="J19" s="15">
-        <v>11311</v>
+        <v>12254</v>
       </c>
       <c r="K19" s="16">
-        <v>-2.767217752630</v>
+        <v>-2.668516402807</v>
       </c>
       <c r="L19" s="16">
-        <v>54.640044994375</v>
+        <v>53.461142563046</v>
       </c>
       <c r="M19" s="16">
-        <v>38.636077146098</v>
+        <v>39.236516460424</v>
       </c>
       <c r="N19" s="16">
-        <v>-37.801153715643</v>
+        <v>-38.374496228169</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1069,40 +1069,40 @@
         <v>25</v>
       </c>
       <c r="C20" s="15">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D20" s="15">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E20" s="16">
-        <v>17.241379310344</v>
+        <v>12.608695652173</v>
       </c>
       <c r="F20" s="15">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="G20" s="15">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="H20" s="16">
-        <v>13.104189044038</v>
+        <v>12.958963282937</v>
       </c>
       <c r="I20" s="15">
-        <v>3308</v>
+        <v>3564</v>
       </c>
       <c r="J20" s="15">
-        <v>3101</v>
+        <v>3331</v>
       </c>
       <c r="K20" s="16">
-        <v>6.675266043211</v>
+        <v>6.994896427499</v>
       </c>
       <c r="L20" s="16">
-        <v>96.553773024361</v>
+        <v>93.485342019544</v>
       </c>
       <c r="M20" s="16">
-        <v>52.161913523459</v>
+        <v>50.952986022871</v>
       </c>
       <c r="N20" s="16">
-        <v>-87.302805818907</v>
+        <v>-87.421916357861</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>26</v>
       </c>
       <c r="C21" s="18">
-        <v>2270</v>
+        <v>2263</v>
       </c>
       <c r="D21" s="18">
-        <v>2289</v>
+        <v>2269</v>
       </c>
       <c r="E21" s="19">
-        <v>-0.830056793359</v>
+        <v>-0.264433671220</v>
       </c>
       <c r="F21" s="18">
-        <v>8923</v>
+        <v>9015</v>
       </c>
       <c r="G21" s="18">
-        <v>8966</v>
+        <v>9021</v>
       </c>
       <c r="H21" s="19">
-        <v>-0.479589560562</v>
+        <v>-0.066511473229</v>
       </c>
       <c r="I21" s="18">
-        <v>27319</v>
+        <v>29648</v>
       </c>
       <c r="J21" s="18">
-        <v>27323</v>
+        <v>29592</v>
       </c>
       <c r="K21" s="19">
-        <v>-0.014639680854</v>
+        <v>0.189240335225</v>
       </c>
       <c r="L21" s="19">
-        <v>45.888070063014</v>
+        <v>45.404610102991</v>
       </c>
       <c r="M21" s="19">
-        <v>22.446326923938</v>
+        <v>23.291886721836</v>
       </c>
       <c r="N21" s="19">
-        <v>-71.412875141266</v>
+        <v>-71.501898399577</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1151,37 +1151,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="15">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D22" s="15">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E22" s="16">
-        <v>21.212121212121</v>
+        <v>28.571428571428</v>
       </c>
       <c r="F22" s="15">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G22" s="15">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H22" s="16">
-        <v>2.906976744186</v>
+        <v>24.528301886792</v>
       </c>
       <c r="I22" s="15">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="J22" s="15">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="K22" s="16">
-        <v>-10.825688073394</v>
+        <v>-8.006814310051</v>
       </c>
       <c r="L22" s="16">
-        <v>53.312302839116</v>
+        <v>56.069364161849</v>
       </c>
       <c r="M22" s="16">
-        <v>2.100840336134</v>
+        <v>5.058365758754</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>28</v>
@@ -1192,37 +1192,37 @@
         <v>29</v>
       </c>
       <c r="C23" s="15">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D23" s="15">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E23" s="16">
-        <v>34.090909090909</v>
+        <v>22.522522522522</v>
       </c>
       <c r="F23" s="15">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G23" s="15">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="H23" s="16">
-        <v>12.776412776412</v>
+        <v>9.761904761904</v>
       </c>
       <c r="I23" s="15">
-        <v>1360</v>
+        <v>1503</v>
       </c>
       <c r="J23" s="15">
-        <v>1274</v>
+        <v>1385</v>
       </c>
       <c r="K23" s="16">
-        <v>6.750392464678</v>
+        <v>8.519855595667</v>
       </c>
       <c r="L23" s="16">
-        <v>24.542124542124</v>
+        <v>25.041597337770</v>
       </c>
       <c r="M23" s="16">
-        <v>60.188457008245</v>
+        <v>64.622124863088</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>28</v>
@@ -1233,37 +1233,37 @@
         <v>30</v>
       </c>
       <c r="C24" s="15">
-        <v>1997</v>
+        <v>2040</v>
       </c>
       <c r="D24" s="15">
-        <v>2205</v>
+        <v>2147</v>
       </c>
       <c r="E24" s="16">
-        <v>-9.433106575963</v>
+        <v>-4.983698183511</v>
       </c>
       <c r="F24" s="15">
-        <v>7995</v>
+        <v>7992</v>
       </c>
       <c r="G24" s="15">
-        <v>8477</v>
+        <v>8508</v>
       </c>
       <c r="H24" s="16">
-        <v>-5.685973811489</v>
+        <v>-6.064880112834</v>
       </c>
       <c r="I24" s="15">
-        <v>24445</v>
+        <v>26508</v>
       </c>
       <c r="J24" s="15">
-        <v>23930</v>
+        <v>26077</v>
       </c>
       <c r="K24" s="16">
-        <v>2.152110321771</v>
+        <v>1.652797484373</v>
       </c>
       <c r="L24" s="16">
-        <v>40.294995408631</v>
+        <v>40.484392389633</v>
       </c>
       <c r="M24" s="16">
-        <v>46.123498117042</v>
+        <v>45.736434108527</v>
       </c>
       <c r="N24" s="14" t="s">
         <v>28</v>
@@ -1274,37 +1274,37 @@
         <v>31</v>
       </c>
       <c r="C25" s="15">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D25" s="15">
-        <v>834</v>
+        <v>779</v>
       </c>
       <c r="E25" s="16">
-        <v>0</v>
+        <v>7.317073170731</v>
       </c>
       <c r="F25" s="15">
-        <v>3218</v>
+        <v>3276</v>
       </c>
       <c r="G25" s="15">
-        <v>3204</v>
+        <v>3172</v>
       </c>
       <c r="H25" s="16">
-        <v>0.436953807740</v>
+        <v>3.278688524590</v>
       </c>
       <c r="I25" s="15">
-        <v>9317</v>
+        <v>10146</v>
       </c>
       <c r="J25" s="15">
-        <v>8797</v>
+        <v>9576</v>
       </c>
       <c r="K25" s="16">
-        <v>5.911106058883</v>
+        <v>5.952380952380</v>
       </c>
       <c r="L25" s="16">
-        <v>37.115526122148</v>
+        <v>37.071061875168</v>
       </c>
       <c r="M25" s="16">
-        <v>-4.490005125576</v>
+        <v>-3.564299971485</v>
       </c>
       <c r="N25" s="14" t="s">
         <v>28</v>
@@ -1315,34 +1315,34 @@
         <v>32</v>
       </c>
       <c r="C26" s="15">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D26" s="15">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E26" s="16">
-        <v>34.146341463414</v>
+        <v>2.222222222222</v>
       </c>
       <c r="F26" s="15">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G26" s="15">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="H26" s="16">
-        <v>-13.953488372093</v>
+        <v>0</v>
       </c>
       <c r="I26" s="15">
-        <v>555</v>
+        <v>602</v>
       </c>
       <c r="J26" s="15">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="K26" s="16">
-        <v>-9.313725490196</v>
+        <v>-8.371385083713</v>
       </c>
       <c r="L26" s="16">
-        <v>7.350096711798</v>
+        <v>3.793103448275</v>
       </c>
       <c r="M26" s="14" t="s">
         <v>28</v>
@@ -1356,34 +1356,34 @@
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D27" s="15">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E27" s="16">
-        <v>-2.586206896551</v>
+        <v>2.941176470588</v>
       </c>
       <c r="F27" s="15">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G27" s="15">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="H27" s="16">
-        <v>3.526448362720</v>
+        <v>0.240963855421</v>
       </c>
       <c r="I27" s="15">
-        <v>1135</v>
+        <v>1234</v>
       </c>
       <c r="J27" s="15">
-        <v>1057</v>
+        <v>1159</v>
       </c>
       <c r="K27" s="16">
-        <v>7.379375591296</v>
+        <v>6.471095772217</v>
       </c>
       <c r="L27" s="16">
-        <v>24.862486248624</v>
+        <v>24.020100502512</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>28</v>
@@ -1397,40 +1397,40 @@
         <v>34</v>
       </c>
       <c r="C28" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="15">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16">
-        <v>-28.125</v>
+        <v>15.789473684210</v>
       </c>
       <c r="F28" s="15">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G28" s="15">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H28" s="16">
-        <v>-28.455284552845</v>
+        <v>-19.834710743801</v>
       </c>
       <c r="I28" s="15">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="J28" s="15">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="K28" s="16">
-        <v>-18.064516129032</v>
+        <v>-16.109422492401</v>
       </c>
       <c r="L28" s="16">
-        <v>-1.930501930501</v>
+        <v>-3.496503496503</v>
       </c>
       <c r="M28" s="16">
-        <v>-17.799352750809</v>
+        <v>-18.100890207715</v>
       </c>
       <c r="N28" s="16">
-        <v>-79.68</v>
+        <v>-79.956427015250</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1438,40 +1438,40 @@
         <v>35</v>
       </c>
       <c r="C29" s="15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" s="15">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16">
-        <v>-31.034482758620</v>
+        <v>5.882352941176</v>
       </c>
       <c r="F29" s="15">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G29" s="15">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H29" s="16">
-        <v>-29.629629629629</v>
+        <v>-23.584905660377</v>
       </c>
       <c r="I29" s="15">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="J29" s="15">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="K29" s="16">
-        <v>-23.550724637681</v>
+        <v>-21.843003412969</v>
       </c>
       <c r="L29" s="16">
-        <v>-8.260869565217</v>
+        <v>-10.894941634241</v>
       </c>
       <c r="M29" s="16">
-        <v>-18.217054263565</v>
+        <v>-18.214285714285</v>
       </c>
       <c r="N29" s="16">
-        <v>-81.539807524059</v>
+        <v>-81.825396825396</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,34 +1479,34 @@
         <v>36</v>
       </c>
       <c r="C30" s="15">
+        <v>9</v>
+      </c>
+      <c r="D30" s="15">
         <v>8</v>
       </c>
-      <c r="D30" s="15">
-        <v>9</v>
-      </c>
       <c r="E30" s="16">
-        <v>-11.111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="F30" s="15">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G30" s="15">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H30" s="16">
-        <v>-53.030303030303</v>
+        <v>-12</v>
       </c>
       <c r="I30" s="15">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="J30" s="15">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K30" s="16">
-        <v>-51.630434782608</v>
+        <v>-42.708333333333</v>
       </c>
       <c r="L30" s="16">
-        <v>18.666666666666</v>
+        <v>23.595505617977</v>
       </c>
       <c r="M30" s="14" t="s">
         <v>28</v>
